--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value125.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value125.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9960933720665429</v>
+        <v>0.453940212726593</v>
       </c>
       <c r="B1">
-        <v>1.740479840398128</v>
+        <v>0.7714504599571228</v>
       </c>
       <c r="C1">
-        <v>3.955006669532387</v>
+        <v>1.203355550765991</v>
       </c>
       <c r="D1">
-        <v>2.516264459933273</v>
+        <v>4.124392509460449</v>
       </c>
       <c r="E1">
-        <v>1.034086073915147</v>
+        <v>1.397419810295105</v>
       </c>
     </row>
   </sheetData>
